--- a/blue_chip_stocks_yearly_earnings_per_share_concat.xlsx
+++ b/blue_chip_stocks_yearly_earnings_per_share_concat.xlsx
@@ -428,344 +428,308 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
+    <row r="2" spans="1:7">
+      <c r="A2">
         <v>1107</v>
       </c>
-      <c r="B2">
-        <v>1107</v>
+      <c r="B2" t="s">
+        <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>2.61</v>
+      </c>
+      <c r="E2">
+        <v>8376628352.49</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>1108</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>2.66</v>
+      </c>
+      <c r="E3">
+        <v>8298496240.6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>1109</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>1.49</v>
+      </c>
+      <c r="E4">
+        <v>8183221476.51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>1110</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>2.12</v>
+      </c>
+      <c r="E5">
+        <v>7923584905.66</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>1148</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="E2">
-        <v>2.61</v>
-      </c>
-      <c r="F2">
-        <v>8376628352.49</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1108</v>
-      </c>
-      <c r="B3">
-        <v>1108</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D6">
+        <v>1.93</v>
+      </c>
+      <c r="E6">
+        <v>58239896.3731</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>1149</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="E3">
-        <v>2.66</v>
-      </c>
-      <c r="F3">
-        <v>8298496240.6</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>1109</v>
-      </c>
-      <c r="B4">
-        <v>1109</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="D7">
+        <v>4.44</v>
+      </c>
+      <c r="E7">
+        <v>60089864.8649</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>1150</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="E4">
-        <v>1.49</v>
-      </c>
-      <c r="F4">
-        <v>8183221476.51</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>1110</v>
-      </c>
-      <c r="B5">
-        <v>1110</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="D8">
+        <v>0.29</v>
+      </c>
+      <c r="E8">
+        <v>422900000</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>1159</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="E5">
-        <v>2.12</v>
-      </c>
-      <c r="F5">
-        <v>7923584905.66</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>1148</v>
-      </c>
-      <c r="B6">
-        <v>1148</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="D9">
+        <v>2.21</v>
+      </c>
+      <c r="E9">
+        <v>1701357466.06</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>1256</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>1.96</v>
+      </c>
+      <c r="E10">
+        <v>7433673469.39</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>1257</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
         <v>11</v>
       </c>
-      <c r="E6">
-        <v>1.93</v>
-      </c>
-      <c r="F6">
-        <v>58239896.3731</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>1149</v>
-      </c>
-      <c r="B7">
-        <v>1149</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="D11">
+        <v>3.23</v>
+      </c>
+      <c r="E11">
+        <v>6812074303.41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>1258</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
         <v>12</v>
       </c>
-      <c r="E7">
-        <v>4.44</v>
-      </c>
-      <c r="F7">
-        <v>60089864.8649</v>
-      </c>
-      <c r="G7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>1150</v>
-      </c>
-      <c r="B8">
-        <v>1150</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="D12">
+        <v>1.44</v>
+      </c>
+      <c r="E12">
+        <v>6343750000</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>1259</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
         <v>13</v>
       </c>
-      <c r="E8">
-        <v>0.29</v>
-      </c>
-      <c r="F8">
-        <v>422900000</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>1159</v>
-      </c>
-      <c r="B9">
-        <v>1159</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9">
-        <v>2.21</v>
-      </c>
-      <c r="F9">
-        <v>1701357466.06</v>
-      </c>
-      <c r="G9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>1256</v>
-      </c>
-      <c r="B10">
-        <v>1256</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10">
-        <v>1.96</v>
-      </c>
-      <c r="F10">
-        <v>7433673469.39</v>
-      </c>
-      <c r="G10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>1257</v>
-      </c>
-      <c r="B11">
-        <v>1257</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11">
-        <v>3.23</v>
-      </c>
-      <c r="F11">
-        <v>6812074303.41</v>
-      </c>
-      <c r="G11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1">
-        <v>1258</v>
-      </c>
-      <c r="B12">
-        <v>1258</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12">
-        <v>1.44</v>
-      </c>
-      <c r="F12">
-        <v>6343750000</v>
-      </c>
-      <c r="G12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1">
-        <v>1259</v>
-      </c>
-      <c r="B13">
-        <v>1259</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
+      <c r="D13">
+        <v>1.13</v>
       </c>
       <c r="E13">
-        <v>1.13</v>
-      </c>
-      <c r="F13">
         <v>6159292035.4</v>
       </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
       <c r="G13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" t="s">
         <v>17</v>
       </c>
     </row>

--- a/blue_chip_stocks_yearly_earnings_per_share_concat.xlsx
+++ b/blue_chip_stocks_yearly_earnings_per_share_concat.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_8197E13D701092474A3C34A3C033E3061458A1E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{264A3555-A64F-459D-BCB5-5479A08E3EC7}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -76,8 +82,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,13 +146,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -184,7 +198,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -218,6 +232,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -252,9 +267,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -427,14 +443,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,7 +484,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1107</v>
       </c>
@@ -471,7 +498,7 @@
         <v>2.61</v>
       </c>
       <c r="E2">
-        <v>8376628352.49</v>
+        <v>8376628352.4899998</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
@@ -480,7 +507,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1108</v>
       </c>
@@ -494,7 +521,7 @@
         <v>2.66</v>
       </c>
       <c r="E3">
-        <v>8298496240.6</v>
+        <v>8298496240.6000004</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -503,7 +530,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1109</v>
       </c>
@@ -517,7 +544,7 @@
         <v>1.49</v>
       </c>
       <c r="E4">
-        <v>8183221476.51</v>
+        <v>8183221476.5100002</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
@@ -526,7 +553,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1110</v>
       </c>
@@ -540,7 +567,7 @@
         <v>2.12</v>
       </c>
       <c r="E5">
-        <v>7923584905.66</v>
+        <v>7923584905.6599998</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
@@ -549,7 +576,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1148</v>
       </c>
@@ -563,7 +590,7 @@
         <v>1.93</v>
       </c>
       <c r="E6">
-        <v>58239896.3731</v>
+        <v>58239896.373099998</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
@@ -572,7 +599,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1149</v>
       </c>
@@ -583,7 +610,7 @@
         <v>12</v>
       </c>
       <c r="D7">
-        <v>4.44</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="E7">
         <v>60089864.8649</v>
@@ -595,7 +622,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1150</v>
       </c>
@@ -606,7 +633,7 @@
         <v>13</v>
       </c>
       <c r="D8">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E8">
         <v>422900000</v>
@@ -618,7 +645,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1159</v>
       </c>
@@ -632,7 +659,7 @@
         <v>2.21</v>
       </c>
       <c r="E9">
-        <v>1701357466.06</v>
+        <v>1701357466.0599999</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
@@ -641,7 +668,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1256</v>
       </c>
@@ -655,7 +682,7 @@
         <v>1.96</v>
       </c>
       <c r="E10">
-        <v>7433673469.39</v>
+        <v>7433673469.3900003</v>
       </c>
       <c r="F10" t="s">
         <v>16</v>
@@ -664,7 +691,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1257</v>
       </c>
@@ -678,7 +705,7 @@
         <v>3.23</v>
       </c>
       <c r="E11">
-        <v>6812074303.41</v>
+        <v>6812074303.4099998</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -687,7 +714,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1258</v>
       </c>
@@ -710,7 +737,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1259</v>
       </c>
@@ -721,10 +748,10 @@
         <v>13</v>
       </c>
       <c r="D13">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="E13">
-        <v>6159292035.4</v>
+        <v>6159292035.3999996</v>
       </c>
       <c r="F13" t="s">
         <v>16</v>
